--- a/SMT32（三）定时器和中断.xlsx
+++ b/SMT32（三）定时器和中断.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CNCR190812\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7CF6E49D-FE19-4C30-8C2F-EBF9A255A7B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9075" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="定时器" sheetId="7" r:id="rId1"/>
     <sheet name="中断" sheetId="8" r:id="rId2"/>
     <sheet name="定时器中断" sheetId="9" r:id="rId3"/>
     <sheet name="PWM" sheetId="11" r:id="rId4"/>
-    <sheet name="通用定时器结构框图" sheetId="10" r:id="rId5"/>
+    <sheet name="输入捕获" sheetId="12" r:id="rId5"/>
+    <sheet name="通用定时器结构框图" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="201">
   <si>
     <t>STM32</t>
   </si>
@@ -41,6 +36,12 @@
     <t>②</t>
   </si>
   <si>
+    <t>⑸⑹⑺⑻⑼⑽</t>
+  </si>
+  <si>
+    <t>第十四讲：SysTick系统定时器</t>
+  </si>
+  <si>
     <t>⑵</t>
   </si>
   <si>
@@ -56,32 +57,17 @@
     <t>⑤⑥⑦⑧⑨⑩</t>
   </si>
   <si>
-    <t>视频路径</t>
-  </si>
-  <si>
-    <t>D:\AAAAAAAAA程序员\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
-  </si>
-  <si>
-    <t>D:\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
-  </si>
-  <si>
-    <t>代码路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑸⑹⑺⑻⑼⑽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第十四讲：SysTick系统定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SysTick系统定时器介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SysTick定时器也叫滴答定时器，</t>
     </r>
     <r>
@@ -89,7 +75,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,24 +84,27 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，嵌入在NVIC中，是一个24位向下递减的定时器，</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>计数一次所需时间为（1/内核时钟），内核时钟可以直接取自系统时钟（SYSCLK），也可以通过SYSCLK八分频得到</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>当定时器计数到0时，就将LOAD寄存器中的值重新拿过来，重新向下计数、如此循环往复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果开启SysTick</t>
     </r>
     <r>
@@ -124,24 +112,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>中断，当定时器计数到0时，就会产生一个中断信号，所以只要知道触发中断的次数就能记准确的时间了</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>控制SysTick的寄存器介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴CTRL寄存器：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>⑵LOAD</t>
     </r>
     <r>
@@ -149,16 +140,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>寄存器：</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LOAD寄存器是SysTick定时器的</t>
     </r>
     <r>
@@ -166,7 +162,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,48 +171,45 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，相应位的功能如下：</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶VAL寄存器：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VAL是SysTick定时器的当前数值寄存器。其相应位功能如下：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SysTick定时器的配置步骤：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴设置SysTick定时器的时钟源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵设置SysTick定时器的重装初始值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶用中断功能就打开始能位，不用就不打</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑷清零SysTick定时器当前计数器的值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑸打开SysTick定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>eg：使用SysTick</t>
     </r>
     <r>
@@ -225,119 +217,123 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>实现延时功能</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没听，感觉很简单，而且使用的方法是一直读标志位，占CPU，没啥意思</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第十五讲：蜂鸣器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没听，没啥意思</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第十六讲：数码管</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第十七讲：按键</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频路径</t>
+  </si>
+  <si>
+    <t>D:\AAAAAAAAA程序员\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
+  </si>
+  <si>
+    <t>D:\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
+  </si>
+  <si>
+    <t>代码路径</t>
+  </si>
+  <si>
+    <t>D:\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-A\4-实验程序\库函数版</t>
   </si>
   <si>
     <t>第十八讲：中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>引言：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32单片机的中断功能非常强大，几乎每个片上外设都有中断功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>概念：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CPU执行程序时，由于发生了某种随机的事件(外部或内部)，引起CPU暂时中断正在运行的程序，转去执行一段特殊的服务程序(中断服务子程序或中断处理程序)，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>以处理该事件，该事件处理完后又返回被中断的程序继续执行，这一过程称为中断。引发中断的称为中断源。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>有些中断还能够被其他高优先级的中断所中断，那么这种情况又叫做中断的嵌套</t>
   </si>
   <si>
     <t>STM32的中断：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32F10x芯片有84个中断通道，包括 16 个内核中断和 68 个可屏蔽中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>这些中断通道已按照不同优先级顺序固定分配给相应的外部设备</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>（参考《STM32F10x中文参考手册》-9 中断和事件章节）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中断向量表：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>数字越小，优先级越高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NVIC介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NVIC英文全称是Nested Vectored Interrupt Controller，中文意思就是嵌套向量中断控制器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>和SysTick一样，它也属于M3内核的一个外设</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，控制着芯片的中断相关功能</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>因为M3内核最多有256个中断，由于不需要这么多功能，ST公司对它进行了裁剪，这个芯片只使用了其中的84个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中断优先级：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这芯片支持60个可屏蔽中断，每个中断都有控制自己优先级的寄存器</t>
     </r>
     <r>
@@ -345,7 +341,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -366,7 +361,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -387,7 +381,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -408,7 +401,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -429,112 +421,109 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用于表达优先级的高4位又被为组成抢占式优先级和响应优先级，通常也把响应优先级称为“亚优先级”或“副优先级”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>每个中断源都需要被指定这两种优先级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高抢占式优先级的中断事件会打断当前的主程序或者中断程序运行，俗称中断嵌套</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在抢占式优先级相同的情况下：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴高响应优先级的中断优先被响应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵当两个中断源的抢占式优先级相同时：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>①这两个中断将没有嵌套关系，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>②当一个中断到来后，如果正在处理另一个中断，这个后到来的中断就要等到前一个中断处理完之后才能被处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>③如果他们的抢占式优先级和响应优先级都相等，则根据他们在中断表中的排位顺序决定先处理那一个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>控制中断优先级的寄存器：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32F103中指定中断优先级的寄存器位有4位，这4位的分组方式如下：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通常配成第2组，抢占式和响应式都占2位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>分组就通过这个库函数实现NVIC_PriorityGroupConfig()，在misc.c这个库文件中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中断配置步骤：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴使能要使用的外设中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵设置中断优先级分组，通过上面的库函数，也就是初始化NVIC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶编写中断服务函数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第十九讲：外部中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外部中断的介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>⑴EXTI的介绍：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXTI是外部中断/事件控制器，包含 20 个用于产生事件/中断请求的边沿检测器，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是片上的外设，挂接在APB2总线上的</t>
+    </r>
   </si>
   <si>
     <t>EXTI的每根输入线都可单独进行配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>以选择类型（中断或事件）和相应的触发事件（上升沿触发、下降沿触发或边沿触发），还可独立地被屏蔽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑴EXTI的介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑵EXTI结构框图：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于</t>
     </r>
     <r>
@@ -542,7 +531,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -553,7 +541,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,7 +551,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -575,16 +561,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>产生事件/中断请求的边沿检测器组成，</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于</t>
     </r>
     <r>
@@ -592,7 +583,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -603,7 +593,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -614,7 +603,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -625,65 +613,42 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>能产生事件/中断请求的边沿检测器</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其中16个挂接在GPIO上了，剩下的三个连接到其他外设上了</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>EXTI是外部中断/事件控制器，包含 20 个用于产生事件/中断请求的边沿检测器，</t>
-    </r>
+  </si>
+  <si>
+    <t>⑵EXTI结构框图：</t>
+  </si>
+  <si>
+    <t>⑶外部中断/事件线映射</t>
+  </si>
+  <si>
+    <t>把GPIOA0 — GPIOG0都映射到EXTI0上</t>
+  </si>
+  <si>
+    <t>把GPIOA15 — GPIOG15都映射到EXTI15上</t>
+  </si>
+  <si>
+    <t>这样就实现了所有的GPIO口都有对应的外部中断线</t>
+  </si>
+  <si>
+    <t>每个中断线最多对应7个IO口，但是每个中断线一次最多连接一个IO口</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是片上的外设，挂接在APB2总线上的</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑶外部中断/事件线映射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>eg：GPIOA0 — GPIO15一共16个引脚，就把这16个引脚映射到EXTI0—EXTI15这16个中断线上面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把GPIOA0 — GPIOG0都映射到EXTI0上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把GPIOA15 — GPIOG15都映射到EXTI15上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样就实现了所有的GPIO口都有对应的外部中断线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个中断线最多对应7个IO口，但是每个中断线一次最多连接一个IO口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>这样就可以通过外部</t>
     </r>
     <r>
@@ -691,7 +656,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -701,68 +665,63 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>来设置到底是哪个IO口连接了中断线</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eg：GPIOA0 — GPIO15一共16个引脚，就把这16个引脚映射到EXTI0—EXTI15这16个中断线上面</t>
   </si>
   <si>
     <t>外部中断配置步骤：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴使能IO口时钟，配置IO口模式为输入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵开启 AFIO 时钟，设置 IO 口与中断线的映射关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶配置中断分组（NVIC），使能中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑷初始化EXTI，选择触发方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑸编写中断服务函数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>eg：通过外部中断，实现按键控制LED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>感觉太简单，没听，视频挺长，有时间研究研究</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第十九讲：定时器中断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>定时器介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32的定时器非常多，有2个基本定时器（TIM6，TIM7），4个通用定时器（TIM2-5），两个高级定时器（TIM1，TIM8）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器1，8挂接在APB2总线上，定时器2/3/4/5/6/7挂接在APB1总线上</t>
   </si>
   <si>
     <t>基本定时器的功能非常简单，类似于51单片机内定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通用定时器是在基本定时器的基础上扩展而来，增加了</t>
     </r>
     <r>
@@ -770,7 +729,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -791,7 +749,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -807,271 +764,181 @@
       </rPr>
       <t>等功能</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>高级定时器又是在通用定时器基础上扩展而来，增加了可编程死区互补输出、重复计数器、带刹车(断路)功能，这些功能主要针对工业电机控制方面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其中通用定时器最为常见，我们只研究通用定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通用定时器介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通用定时器包含一个16位自动重装载计数器（CNT），该计数器由可编程预分频器（PSC）驱动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32F1的通用定时器可用于多种用途，包括测量输入信号的脉冲宽度(输入捕获)或者生成输出波形(输出比较和PWM)等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用定时器预分频器和 RCC 时钟控制器预分频器，脉冲长度和波形周期可以在几个微秒到几个毫秒间调整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32的每个定时器都是完全独立的，没有共享任何资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32F1的通用定时器TIMx (TIM2-TIM5 )具有如下功能：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴16 位向上、向下、向上/向下自动装载计数器（TIMx_CNT）。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵16 位可编程(可以实时修改)预分频器(TIMx_PSC)，通过修改预分频七，就能把计数器时钟频率的分频系数设置为为 1～65535之间的任意数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶每个定时器都有四个独立通道，TIMx_CH1-4，这些通道可以用来作为：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>输入捕获</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>输出比较</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PWM 生成(边缘或中间对齐模式)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>单脉冲模式输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑷可使用外部信号控制定时器，且可实现多个定时器互连（可以用1个定时器控制另外一个定时器）的同步电路</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑸产生中断/DMA请求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑹支持针对定位的增量(正交)编码器和霍尔传感器电路</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑺触发输入作为外部时钟或者按周期的电流管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通用定时器结构框图：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>图：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时器1，8挂接在APB2总线上，定时器2/3/4/5/6/7挂接在APB1总线上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通用定时器配置步骤：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴使能定时器时钟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵初始化定时器参数,包含自动重装值，分频系数，计数方式等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶设置定时器中断类型，并使能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑷设置定时器中断优先级，使能定时器中断通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑸开启定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑹编写定时器中断服务函数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>编写定时器中断控制程序：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过TIM4的更新中断控制D2指示灯间隔500ms秒状态取反，主函数控制D1指示灯不断闪烁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>感觉很简单，没听</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-A\4-实验程序\库函数版</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十讲：通用定时器控制产生PWM波</t>
   </si>
   <si>
     <t>PWM介绍：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PWM是 Pulse Width Modulation 的缩写，是脉冲宽度调制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>它利用了微处理器的数字输出，来对模拟电路进行控制的一种非常有效的技术，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>它控制简单，灵活，动态响应好，所以应用非常广泛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PWM是一种对模拟信号电平进行数字编码的方法，通过高分辨率计数器的使用，方波的占空比被调制用来对一个具体模拟信号的电平进行编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>STM32F1除了基本定时器TIM6和TIM7，其他定时器都可以产生PWM输出。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>其中高级定时器 TIM1 和 TIM8 可以同时产生多达 7 路的 PWM 输出。而通用定时器也能同时产生多达 4路的 PWM 输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
+  </si>
+  <si>
+    <t>信号频率是由自动重装寄存器 ARR 的值决定，占空比由比较寄存器 CCR 的值决定</t>
+  </si>
+  <si>
+    <t>PWM的输出模式：</t>
+  </si>
+  <si>
+    <t>PWM的输出模式有8种，由TIMx_CCMR2寄存器的OCxM[2:0]位来配置，这里只介绍两种，PWM1和PWM2，其他的不常用</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>计数器CNT的计算方式</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>PWM1</t>
+  </si>
+  <si>
+    <t>递增</t>
+  </si>
+  <si>
+    <t>CNT&lt;CCR，通道CH为有效电平，否则为无效</t>
+  </si>
+  <si>
+    <t>递减</t>
+  </si>
+  <si>
+    <t>CNT&gt;CCR，通道CH为无效电平，否则为有效</t>
+  </si>
+  <si>
+    <t>PWM2</t>
+  </si>
+  <si>
+    <t>CNT&lt;CCR，通道CH为无效电平，否则为有效</t>
+  </si>
+  <si>
+    <t>CNT&gt;CCR，通道CH为有效电平，否则为无效</t>
+  </si>
+  <si>
+    <t>PWM模式根据计数器CNT计数方式，可分为：</t>
+  </si>
+  <si>
+    <t>⑴PWM边沿对齐模式：</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号频率是由自动重装寄存器 ARR 的值决定，占空比由比较寄存器 CCR 的值决定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM的输出模式：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM的输出模式有8种，由TIMx_CCMR2寄存器的OCxM[2:0]位来配置，这里只介绍两种，PWM1和PWM2，其他的不常用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数器CNT的计算方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>递增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>递减</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNT&lt;CCR，通道CH为有效电平，否则为无效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNT&gt;CCR，通道CH为无效电平，否则为有效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNT&lt;CCR，通道CH为无效电平，否则为有效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNT&gt;CCR，通道CH为有效电平，否则为无效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM模式根据计数器CNT计数方式，可分为：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑴PWM边沿对齐模式：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后重新从 0 开始计数并生成计数器上溢事件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果 TIMx_CCRx 中的比较值大于自动重载值（TIMx_ARR 中），则 OCxREF 保持为“ 1”。如果比较值为 0， 则 OCxREF 保持为“ 0”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要TIMx_CNT &lt; TIMx_CCRx，PWM 参考信号 OCxREF 便为有效的高电平，否则为无效的低电平</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以PWM模式1为例：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>①当 TIMx_CR1 寄存器中的 DIR 位为0</t>
     </r>
     <r>
@@ -1089,7 +956,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +976,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1126,93 +991,176 @@
       </rPr>
       <t>寄存器的内容）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后重新从 0 开始计数并生成计数器上溢事件</t>
+  </si>
+  <si>
+    <t>以PWM模式1为例：</t>
+  </si>
+  <si>
+    <t>只要TIMx_CNT &lt; TIMx_CCRx，PWM 参考信号 OCxREF 便为有效的高电平，否则为无效的低电平</t>
+  </si>
+  <si>
+    <t>如果 TIMx_CCRx 中的比较值大于自动重载值（TIMx_ARR 中），则 OCxREF 保持为“ 1”。如果比较值为 0， 则 OCxREF 保持为“ 0”</t>
   </si>
   <si>
     <t>②当 TIMx_CR1 寄存器中的 DIR 位为高时执行递减计数，计数器CNT从自动重载值（TIMx_ARR 寄存器的内容）递减计数到0，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>然后重新从TIMx_ARR值开始计数并生成计数器下溢事件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>只要TIMx_CNT &gt;TIMx_CCRx， PWM 参考信号 OCxREF 便为无效的低电平，否则为有效的高电平。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>如果 TIMx_CCRx 中的比较值大于自动重载值（TIMx_ARR 中），则 OCxREF 保持为“ 1”。此模式下不能产生0%的PWM波形</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑵PWM中心对齐模式：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没听，跟上面一样，应该很简单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二十讲：通用定时器控制产生PWM波</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PWM输出配置步骤：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑴使能定时器及端口时钟，并设置引脚复用器映射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为PWM是从GPIO口输出的，所以要打开对应GPIO的时钟并设置复用功能，然后重映射</t>
   </si>
   <si>
     <t>这里使用的定时器3，所以就始能定时器3，挂接在APB2总线上</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为PWM是从GPIO口输出的，所以要打开对应GPIO的时钟并设置复用功能，然后重映射</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>⑵初始化定时器参数,包含自动重装值，分频系数，计数方式等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑶初始化PWM输出参数，包含PWM模式、输出极性，使能等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们要配置TIM3的CH1为PWM1模式，输出极性为低电平，并且使能PWM输出</t>
   </si>
   <si>
     <t>⑷开启定时器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果我们要配置TIM3的CH1为PWM1模式，输出极性为低电平，并且使能PWM输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑸修改TIMx_CCRx的值控制占空比</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑹使能TIMx在CCRx上的预装载寄存器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>⑺使能 TIMx 在 ARR 上的预装载寄存器允许位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>注意：高级定时器要想输出PWM波形，必须要设置一个 MOE 位(TIMx_BDTR 的第 15 位)，以使能主输出，否则不会输出 PWM。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二十一讲：输入捕获</t>
+  </si>
+  <si>
+    <t>介绍：</t>
+  </si>
+  <si>
+    <t>输入捕获可以测量输入信号的脉冲宽度，测量PWM输入信号的频率和占空比</t>
+  </si>
+  <si>
+    <t>原理：</t>
+  </si>
+  <si>
+    <t>在输入捕获模式下，相应的边沿发生跳变，芯片会使用捕获/比较寄存器来锁存计数值，</t>
+  </si>
+  <si>
+    <t>捕获时还可以配置是否触发中断，DMA等</t>
+  </si>
+  <si>
+    <t>输入捕获配置步骤：（测PWM高端平时间）</t>
+  </si>
+  <si>
+    <t>⑴使能定时器和对应端口的时钟，设置引脚的复用功能和引脚模式</t>
+  </si>
+  <si>
+    <t>⑵初始化定时器参数，自动传装置、分频系数、计数方式等</t>
+  </si>
+  <si>
+    <t>⑶设置通用定时器的输入捕获功能，通道、捕获极性、映射、分频系数、滤波长度等，开启捕获功能</t>
+  </si>
+  <si>
+    <t>⑷开启捕获和定时器溢出中断</t>
+  </si>
+  <si>
+    <t>⑸设置定时器中断优先级，使能中断通道</t>
+  </si>
+  <si>
+    <t>⑹编写定时器中断服务函数，捕获中断中定时器清0，捕获极性反转。更新中断中记溢出次数</t>
+  </si>
+  <si>
+    <t>⑺使能定时器</t>
+  </si>
+  <si>
+    <t>实验没听，原理懂了，实验就不听了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1222,7 +1170,6 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1230,13 +1177,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1244,7 +1191,67 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1252,28 +1259,78 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,12 +1357,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1315,27 +1558,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,20 +1586,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1364,104 +1607,328 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,52 +1937,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF33CC33"/>
+      <color rgb="0033CC33"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1531,27 +2059,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528C0B76-B01A-4993-88EB-5A9DEDA665BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696515" y="1677224"/>
-          <a:ext cx="4229247" cy="1471979"/>
+          <a:off x="1069975" y="2181860"/>
+          <a:ext cx="4257675" cy="1462405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,21 +2095,15 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4900AA7-E167-4543-9B8C-133766B8986B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6066235" y="1863325"/>
-          <a:ext cx="1887140" cy="1285875"/>
+          <a:off x="6475730" y="2366645"/>
+          <a:ext cx="1898650" cy="1277620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,6 +2198,11 @@
             </a:rPr>
             <a:t>分频应该是片上外设寄存器控制，不是内核寄存器控制</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1700,23 +2221,17 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8D469D-0583-4EC4-A79E-662D5011E076}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3833812" y="2506263"/>
-          <a:ext cx="2232423" cy="5956"/>
+          <a:off x="4228465" y="3006090"/>
+          <a:ext cx="2247265" cy="5715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1755,21 +2270,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="文本框 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346C091B-4014-4364-B174-2DDBA567C7EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6078141" y="3345657"/>
-          <a:ext cx="1887140" cy="660797"/>
+          <a:off x="6487160" y="3839210"/>
+          <a:ext cx="1899285" cy="656590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,6 +2366,11 @@
             </a:rPr>
             <a:t>：不产生中断</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1875,23 +2389,17 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>110135</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="连接符: 肘形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B78ED8-04EA-44FD-BE74-822C54C31CCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="连接符: 肘形 10"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3833815" y="2881312"/>
-          <a:ext cx="2244327" cy="794745"/>
+          <a:off x="4229100" y="3377565"/>
+          <a:ext cx="2258060" cy="789940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1932,21 +2440,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>35720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文本框 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97DFD42-4AF2-460F-8021-76B9EC29F3B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="4161235"/>
-          <a:ext cx="1887140" cy="303610"/>
+          <a:off x="6505575" y="4648835"/>
+          <a:ext cx="1898650" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,23 +2520,17 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>56557</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="连接符: 肘形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C23182E-584B-401E-9B44-49ED8B340D04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="连接符: 肘形 14"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3833814" y="3036094"/>
-          <a:ext cx="2262186" cy="1276947"/>
+          <a:off x="4229100" y="3532505"/>
+          <a:ext cx="2276475" cy="1267460"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2075,21 +2571,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="文本框 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D92B663-97E0-4E36-A264-D00F9B8770F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="文本框 26"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6060282" y="1524000"/>
-          <a:ext cx="1887140" cy="660797"/>
+          <a:off x="6469380" y="1515110"/>
+          <a:ext cx="1899285" cy="656590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,23 +2715,17 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="连接符: 肘形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC538AA-81DA-423C-875F-38EC6B6E5578}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="连接符: 肘形 29"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4899422" y="1854399"/>
-          <a:ext cx="1160860" cy="872132"/>
+          <a:off x="5301615" y="1843405"/>
+          <a:ext cx="1167765" cy="866140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2284,27 +2768,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DBAE3E-E76C-455A-8DC5-91970CF8F9FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1125140" y="5485983"/>
-          <a:ext cx="4103239" cy="543546"/>
+          <a:off x="1132205" y="5450205"/>
+          <a:ext cx="4129405" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2326,21 +2804,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>41671</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="文本框 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7621FC07-982C-486C-8931-F70DFD4C02E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="文本框 35"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5411390" y="5369718"/>
-          <a:ext cx="1869281" cy="654844"/>
+          <a:off x="5444490" y="5334635"/>
+          <a:ext cx="1880870" cy="650240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,27 +2934,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF68FFA-78EC-46B7-9AC7-DB74DA4F22C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1125140" y="6529047"/>
-          <a:ext cx="4381501" cy="889220"/>
+          <a:off x="1132205" y="6485890"/>
+          <a:ext cx="4407535" cy="883285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2495,7 +2961,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2511,19 +2977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D30FE8-1410-49F4-9D3C-332A78EAD614}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2535,10 +2995,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="741947" y="12217066"/>
-          <a:ext cx="5953587" cy="4281237"/>
+          <a:off x="742315" y="12287250"/>
+          <a:ext cx="5962015" cy="4305935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,19 +3032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 3" descr="B(Z$G[]OU{5T%]Y3XWX(VRT">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664399B1-33AA-4062-AB2C-0B2DED1AF9B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 3" descr="B(Z$G[]OU{5T%]Y3XWX(VRT"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2596,10 +3050,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="741948" y="5569619"/>
-          <a:ext cx="2693172" cy="1097882"/>
+          <a:off x="742950" y="8172450"/>
+          <a:ext cx="2696210" cy="1103630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,19 +3100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7F245B-25E7-4369-87F3-36FC3766CA3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2670,10 +3118,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="782055" y="2331118"/>
-          <a:ext cx="3629526" cy="2885659"/>
+          <a:off x="782955" y="2341880"/>
+          <a:ext cx="3634105" cy="2902585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2718,21 +3166,15 @@
       <xdr:row>108</xdr:row>
       <xdr:rowOff>103415</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E880CE-F842-4108-8460-1E035D99D161}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762286" y="17406543"/>
-          <a:ext cx="2857214" cy="1621686"/>
+          <a:off x="764540" y="17136745"/>
+          <a:ext cx="2867025" cy="1597025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2827,6 +3269,14 @@
             </a:rPr>
             <a:t>跟中断输入线</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2873,6 +3323,14 @@
             </a:rPr>
             <a:t>个</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2919,6 +3377,14 @@
             </a:rPr>
             <a:t>个</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2965,6 +3431,14 @@
             </a:rPr>
             <a:t>个</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3011,6 +3485,14 @@
             </a:rPr>
             <a:t>个</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3045,6 +3527,14 @@
             </a:rPr>
             <a:t>输入线一般是存在电平变化的信号线</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -3066,21 +3556,15 @@
       <xdr:row>98</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="文本框 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96B874E-FE11-44A3-95A9-68A68423F371}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="772886" y="16851086"/>
-          <a:ext cx="2070291" cy="484414"/>
+          <a:off x="775335" y="16589375"/>
+          <a:ext cx="2077085" cy="479425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3385,21 +3869,15 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="文本框 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81EA4876-1504-4808-9612-733D0FBBBC47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="文本框 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3717472" y="17411700"/>
-          <a:ext cx="2857214" cy="1017814"/>
+          <a:off x="3730625" y="17141825"/>
+          <a:ext cx="2867025" cy="1001395"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3600,21 +4078,15 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文本框 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B15B97-0DB1-49BB-91E9-A87296270040}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6999516" y="13220700"/>
-          <a:ext cx="2857214" cy="669471"/>
+          <a:off x="7023735" y="13016230"/>
+          <a:ext cx="2868295" cy="658495"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3698,6 +4170,14 @@
             </a:rPr>
             <a:t>事件，这个在某些地方非常有用</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3716,21 +4196,15 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>136068</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="连接符: 肘形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A3FADB-E283-493C-B672-815F22213A22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="连接符: 肘形 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4136576" y="13541911"/>
-          <a:ext cx="2862942" cy="468000"/>
+          <a:off x="4150995" y="13331825"/>
+          <a:ext cx="2872740" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3769,21 +4243,15 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="文本框 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC977A98-FB4D-4272-9A41-6A9A0B09D989}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3488872" y="16034657"/>
-          <a:ext cx="892628" cy="288472"/>
+          <a:off x="3500755" y="15786735"/>
+          <a:ext cx="895350" cy="283210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3861,21 +4329,15 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>136073</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文本框 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E37723-C016-4E75-AFBC-F488C33FCF3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1431470" y="14450787"/>
-          <a:ext cx="832757" cy="255815"/>
+          <a:off x="1435100" y="14227175"/>
+          <a:ext cx="836930" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3953,21 +4415,15 @@
       <xdr:row>89</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931EB553-B9BB-4831-9F87-3B733089CC29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6999514" y="13977257"/>
-          <a:ext cx="2857214" cy="1763486"/>
+          <a:off x="7023735" y="13761720"/>
+          <a:ext cx="2868295" cy="1736725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4107,7 +4563,6 @@
             <a:buSzTx/>
             <a:buFontTx/>
             <a:buNone/>
-            <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
           <a:r>
@@ -4154,6 +4609,14 @@
             </a:rPr>
             <a:t>号输出的结果会保存到请求挂起寄存器中，</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4172,21 +4635,15 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>16331</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="连接符: 肘形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F2FD53-A5C6-4FD4-9675-9E8892BB3AB5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="连接符: 肘形 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2751515" y="14611202"/>
-          <a:ext cx="4248000" cy="324000"/>
+          <a:off x="2760980" y="14385290"/>
+          <a:ext cx="4262755" cy="318135"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4225,21 +4682,15 @@
       <xdr:row>85</xdr:row>
       <xdr:rowOff>13762</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="连接符: 肘形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F1C456-3707-4DE7-96A4-AD39E43066E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="连接符: 肘形 19"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3402085" y="14608633"/>
-          <a:ext cx="3600000" cy="324000"/>
+          <a:off x="3413760" y="14382750"/>
+          <a:ext cx="3612515" cy="318135"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4278,21 +4729,15 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>125185</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="文本框 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2618040-2714-49BC-9006-7FF844861E6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="文本框 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3701143" y="18576471"/>
-          <a:ext cx="2857214" cy="647700"/>
+          <a:off x="3714750" y="18288000"/>
+          <a:ext cx="2866390" cy="639445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4428,21 +4873,15 @@
       <xdr:row>94</xdr:row>
       <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="文本框 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5037886-6F93-42A1-958C-C40C7F211BD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="文本框 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7032171" y="15963900"/>
-          <a:ext cx="2857214" cy="669471"/>
+          <a:off x="7056120" y="15716250"/>
+          <a:ext cx="2868295" cy="661035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4548,6 +4987,14 @@
             </a:rPr>
             <a:t>就屏蔽</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4566,21 +5013,15 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="文本框 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9AC255-C272-4D40-B7EF-87D13B42835F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705599" y="17417143"/>
-          <a:ext cx="2857214" cy="740228"/>
+          <a:off x="6729730" y="17147540"/>
+          <a:ext cx="2867025" cy="728980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4727,21 +5168,15 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB69E23-A888-4EEA-91EE-EA22D98C7243}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6711042" y="18211800"/>
-          <a:ext cx="2710544" cy="1050472"/>
+          <a:off x="6735445" y="17931130"/>
+          <a:ext cx="2719705" cy="1034415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4902,19 +5337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF4B8B8-BE9A-466C-A2B2-8C8BAD8F5C4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4926,10 +5355,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1083130" y="19447328"/>
-          <a:ext cx="3339507" cy="821872"/>
+          <a:off x="1085850" y="19145250"/>
+          <a:ext cx="3351530" cy="810895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4965,7 +5394,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4976,19 +5405,13 @@
     <xdr:ext cx="2808287" cy="916226"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="E:\ZXKJ\LY-STM32\课件\PWM图.jpgPWM图">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBEF8E5-DC5F-4238-829D-1ED840B32B66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr="E:\ZXKJ\LY-STM32\课件\PWM图.jpgPWM图"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5000,10 +5423,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1288597" y="8173345"/>
-          <a:ext cx="2808287" cy="916226"/>
+          <a:off x="916940" y="1828800"/>
+          <a:ext cx="2807970" cy="915670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5039,7 +5462,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5055,19 +5478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506067B4-27BA-42E1-AF13-C6CD550742EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5079,7 +5496,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="14935200" cy="13963650"/>
@@ -5114,21 +5531,15 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A609DC-D980-4268-AE4A-2B7040DC427A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="367393" y="896471"/>
-          <a:ext cx="8597313" cy="3669125"/>
+          <a:off x="367030" y="913130"/>
+          <a:ext cx="8626475" cy="3742690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5182,19 +5593,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE13CC1F-57DD-4507-A0D9-F2C84C183EA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5206,10 +5611,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="408214" y="4014107"/>
-          <a:ext cx="523875" cy="736146"/>
+          <a:off x="407670" y="3893820"/>
+          <a:ext cx="529590" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5241,21 +5646,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="文本框 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFECC8D0-8D2E-4E7A-A262-ECDCA2DF2751}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="文本框 5"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15056704" y="48822"/>
-          <a:ext cx="6301708" cy="2438884"/>
+          <a:off x="15105380" y="48260"/>
+          <a:ext cx="6322060" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5371,6 +5770,11 @@
             </a:rPr>
             <a:t>ETR</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5397,6 +5801,11 @@
             </a:rPr>
             <a:t>ITR0-3</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5423,6 +5832,11 @@
             </a:rPr>
             <a:t>TIMx_CH1-4</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5466,6 +5880,14 @@
             </a:rPr>
             <a:t>）来配置</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -5523,21 +5945,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直接连接符 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A864C4-4BB8-4D1F-9474-BECBC5446B08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="直接连接符 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="1199029"/>
-          <a:ext cx="1656000" cy="0"/>
+          <a:off x="4394835" y="1222375"/>
+          <a:ext cx="1660525" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5574,21 +5990,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接连接符 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAC7914-7F33-4AF9-98C3-94D9A251174F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="直接连接符 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392207" y="2039471"/>
-          <a:ext cx="1116000" cy="0"/>
+          <a:off x="391795" y="2079625"/>
+          <a:ext cx="1120775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5625,21 +6035,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="矩形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3CFCE6-7B5D-486A-8ED1-16F9A9999F0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="369794" y="7224589"/>
-          <a:ext cx="963706" cy="3163263"/>
+          <a:off x="369570" y="7365365"/>
+          <a:ext cx="965835" cy="3227070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5691,21 +6095,15 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4EA50F2-4918-4390-862B-3DBFA966F771}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3720352" y="2095500"/>
-          <a:ext cx="515471" cy="1109382"/>
+          <a:off x="3731260" y="2135505"/>
+          <a:ext cx="517525" cy="1132840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5757,21 +6155,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54191B2A-F022-4862-864E-6670B2B51B56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9659472" y="784413"/>
-          <a:ext cx="3316940" cy="4168587"/>
+          <a:off x="9690735" y="797560"/>
+          <a:ext cx="3325495" cy="4252595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5825,19 +6217,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C58A8E4-1A07-4D18-BE02-7FF09FAC38F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5849,10 +6235,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="12573000" y="4381500"/>
-          <a:ext cx="342900" cy="523315"/>
+          <a:off x="12613005" y="4468495"/>
+          <a:ext cx="342900" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,21 +6270,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文本框 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B811251-0B3C-4DF1-A524-5796B8B64010}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="文本框 15"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15038294" y="2689412"/>
-          <a:ext cx="7104530" cy="2162735"/>
+          <a:off x="15087600" y="2743200"/>
+          <a:ext cx="7126605" cy="2202815"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6074,21 +6454,15 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矩形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414259EA-CF84-47FE-BA09-3A6E3F213A71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4908175" y="4964206"/>
-          <a:ext cx="7530354" cy="1445559"/>
+          <a:off x="4923790" y="5061585"/>
+          <a:ext cx="7554595" cy="1475740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6142,19 +6516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40005265-E0E4-48AD-A0C8-9C41059FAD59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6166,10 +6534,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="11979089" y="5838265"/>
-          <a:ext cx="352425" cy="513790"/>
+          <a:off x="12016740" y="5952490"/>
+          <a:ext cx="354965" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6201,21 +6569,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="文本框 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9409C977-2445-42E9-A0E7-EC8DCADAD1E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="文本框 18"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15038293" y="5042647"/>
-          <a:ext cx="7944971" cy="3798794"/>
+          <a:off x="15085060" y="5143500"/>
+          <a:ext cx="7971790" cy="3872230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6316,32 +6678,6 @@
             </a:rPr>
             <a:t>ARR</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>这三个寄存器都是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>16</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>位有效的</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -6350,12 +6686,20 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这三个寄存器都是</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PSC</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
@@ -6363,58 +6707,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>对计数器的时钟频率进行分频，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>给计数器输出时钟</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CK_CNT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>，由于从模式寄存器有缓存功能，所以当修改分频系数时，下一个周期</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>更新事件才会生效</a:t>
+            <a:t>位有效的</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:solidFill>
@@ -6429,7 +6722,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>CNT</a:t>
+            <a:t>PSC</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
@@ -6437,7 +6730,58 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>：有向上计数，向下计数，中心对齐三种方式</a:t>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对计数器的时钟频率进行分频，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>给计数器输出时钟</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CK_CNT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，由于从模式寄存器有缓存功能，所以当修改分频系数时，下一个周期</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新事件才会生效</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:solidFill>
@@ -6447,108 +6791,20 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CNT</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>当向上计数：每来一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CK_CNT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>信号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CNT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>就加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>，加到和重载寄存器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ARR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>中的数一样时，就会产生向上溢出事件，然后把</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CNT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>清</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>重新加</a:t>
+            <a:t>：有向上计数，向下计数，中心对齐三种方式</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:solidFill>
@@ -6563,7 +6819,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>向下计数同理，减到</a:t>
+            <a:t>当向上计数：每来一个</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
@@ -6571,6 +6827,86 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>CK_CNT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>信号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CNT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>就加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，加到和重载寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ARR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中的数一样时，就会产生向上溢出事件，然后把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CNT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>清</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>0</a:t>
           </a:r>
           <a:r>
@@ -6579,7 +6915,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>产生下溢事件，然后把重载值装进去</a:t>
+            <a:t>重新加</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
             <a:solidFill>
@@ -6594,8 +6930,44 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>向下计数同理，减到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>产生下溢事件，然后把重载值装进去</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>把这两个组合在一起就是中心对齐的计数方式</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6614,21 +6986,15 @@
       <xdr:row>67</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD3560B-C71A-4357-8476-D7A1CA6F42D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="291353" y="6409765"/>
-          <a:ext cx="10410265" cy="4896969"/>
+          <a:off x="290830" y="6537325"/>
+          <a:ext cx="10443845" cy="4994275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6682,19 +7048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B77126D-2ADA-4629-879E-E435759277E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6706,10 +7066,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="403412" y="10701618"/>
-          <a:ext cx="409575" cy="513790"/>
+          <a:off x="403225" y="10913110"/>
+          <a:ext cx="411480" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6741,21 +7101,15 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123266</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="矩形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166B1E53-ECE6-4840-9CC3-25D574E0FA30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8269942" y="6443383"/>
-          <a:ext cx="6185646" cy="4605618"/>
+          <a:off x="8296275" y="6570980"/>
+          <a:ext cx="6205855" cy="4696460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6813,19 +7167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C4163F-F0CA-45CD-9FAD-AD88C06C40E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6837,10 +7185,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13615147" y="10443883"/>
-          <a:ext cx="333375" cy="504265"/>
+          <a:off x="13657580" y="10652125"/>
+          <a:ext cx="335280" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6872,21 +7220,15 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="文本框 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABF22CA-9573-47A9-AED9-432CE22F2C17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="文本框 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15038294" y="9076765"/>
-          <a:ext cx="7944971" cy="5558118"/>
+          <a:off x="15087600" y="9258300"/>
+          <a:ext cx="7969250" cy="5668645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7423,21 +7765,15 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="文本框 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E755F4-F9C4-4E9C-9D37-101B6901BA0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="文本框 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14018559"/>
-          <a:ext cx="7944971" cy="1949823"/>
+          <a:off x="0" y="14297025"/>
+          <a:ext cx="7969250" cy="1990725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7624,6 +7960,14 @@
             </a:rPr>
             <a:t>OC1-4</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7642,21 +7986,15 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="矩形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E1AE50-B09A-46B8-8813-B6566AD8225A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="矩形 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13088470" y="6664294"/>
-          <a:ext cx="1210235" cy="3667529"/>
+          <a:off x="13130530" y="6795135"/>
+          <a:ext cx="1212850" cy="3741420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7708,21 +8046,15 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="文本框 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49881630-E5FA-4EB0-84A7-A23E468068C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11441206" y="5069369"/>
-          <a:ext cx="829235" cy="343072"/>
+          <a:off x="11476990" y="5170170"/>
+          <a:ext cx="831215" cy="349250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7775,21 +8107,15 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="文本框 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB8B5D5-9726-45BD-A273-EB28C41FC165}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9835145" y="10485517"/>
-          <a:ext cx="552708" cy="328160"/>
+          <a:off x="9865995" y="10693400"/>
+          <a:ext cx="554990" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8139,2130 +8465,2394 @@
       </a:style>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+    <row r="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C4" s="8" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C5" s="8" t="s">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="3:23">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C6" s="8" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+    </row>
+    <row r="10" spans="3:23">
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="3:23">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+    </row>
+    <row r="13" spans="3:23">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+    </row>
+    <row r="14" spans="3:23">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+    </row>
+    <row r="15" spans="3:23">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+    </row>
+    <row r="17" spans="3:23">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+    </row>
+    <row r="18" spans="3:23">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+    </row>
+    <row r="19" spans="3:23">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+    </row>
+    <row r="20" spans="3:23">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+    </row>
+    <row r="21" spans="3:23">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+    </row>
+    <row r="22" spans="3:23">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+    </row>
+    <row r="23" spans="3:23">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+    </row>
+    <row r="24" spans="3:23">
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+    </row>
+    <row r="25" spans="3:23">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+    </row>
+    <row r="26" spans="3:23">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+    </row>
+    <row r="27" spans="3:23">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+    </row>
+    <row r="28" spans="3:23">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+    </row>
+    <row r="29" spans="3:23">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+    </row>
+    <row r="30" spans="3:23">
+      <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C7" s="8" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="3:23">
+      <c r="C31" s="4"/>
+      <c r="D31" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="3:23">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="3:23">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="3:23">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="3:23">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="3:23">
+      <c r="C36" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C9" s="9" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+    </row>
+    <row r="37" spans="3:23">
+      <c r="C37" s="28"/>
+      <c r="D37" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C11" s="10"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C30" s="6" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+    </row>
+    <row r="38" spans="3:23">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+    </row>
+    <row r="39" spans="3:23">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+    </row>
+    <row r="40" spans="3:23">
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+    </row>
+    <row r="41" spans="3:23">
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+    </row>
+    <row r="42" spans="3:23">
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+    </row>
+    <row r="43" spans="3:23">
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C36" s="12" t="s">
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B44" s="8" t="s">
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C45" s="8" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C46" s="8" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C47" s="11" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="C48" s="11" t="s">
+    <row r="53" spans="1:27">
+      <c r="A53" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="C49" s="8" t="s">
+      <c r="X53" s="12"/>
+      <c r="AA53" s="13"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B50" s="8" t="s">
+    <row r="56" spans="1:27">
+      <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="C51" s="15" t="s">
+      <c r="X56" s="12"/>
+      <c r="AA56" s="13"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="X59" s="12"/>
+      <c r="AA59" s="13"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:1">
+      <c r="A85" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X53" s="2"/>
-      <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:1">
+      <c r="A86" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+    <row r="87" s="3" customFormat="1"/>
+    <row r="88" s="3" customFormat="1" spans="1:1">
+      <c r="A88" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="X56" s="2"/>
-      <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:1">
+      <c r="A89" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X59" s="2"/>
-      <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6" t="s">
-        <v>141</v>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:1">
+      <c r="A90" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE154"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A139" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149:XFD157"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A149" sqref="$A149:$XFD157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+    <row r="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="13:13">
+      <c r="M14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D62" s="12"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="117" spans="4:11">
+      <c r="D117" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" s="3" customFormat="1" spans="1:1">
+      <c r="A149" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" s="3" customFormat="1" spans="1:1">
+      <c r="A150" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" s="3" customFormat="1"/>
+    <row r="152" s="3" customFormat="1" spans="1:1">
+      <c r="A152" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" s="4" customFormat="1" spans="1:1">
+      <c r="A153" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" s="4" customFormat="1" spans="1:1">
+      <c r="A154" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C4" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="M14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C33" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C34" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C36" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C37" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C38" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C40" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E43" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E45" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C59" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C60" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D65" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D67" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D68" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D69" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D70" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C71" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C111" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D117" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D118" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D119" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D120" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D121" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B122" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C123" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C124" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C125" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C126" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C127" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B128" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C129" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="152" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="6" t="s">
-        <v>141</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C1AD72-89CD-4DDF-B389-5BD30F92B2A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+    <row r="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C4" s="8" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C5" s="8" t="s">
+    <row r="7" spans="3:3">
+      <c r="C7" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C6" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C7" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C8" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C9" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C11" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C12" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C14" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C16" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C17" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C18" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D19" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C23" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C24" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="8" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C30" s="8" t="s">
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C31" s="8" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C32" s="8" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C33" s="8" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C35" s="8" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B36" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C37" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C38" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="104" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="6" t="s">
-        <v>141</v>
+    <row r="101" s="3" customFormat="1" spans="1:1">
+      <c r="A101" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:1">
+      <c r="A102" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" s="3" customFormat="1"/>
+    <row r="104" s="3" customFormat="1" spans="1:1">
+      <c r="A104" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" s="4" customFormat="1" spans="1:1">
+      <c r="A105" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:1">
+      <c r="A106" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C28" location="通用定时器结构框图!A1" display="图：" xr:uid="{A1FF1350-8ECE-469B-8DC3-C9D11CD11E87}"/>
+    <hyperlink ref="C28" location="通用定时器结构框图!A1" display="图："/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA7DDF2-9FB6-416E-A1FB-81FEAA1EA9C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A69" sqref="$A69:$XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="1"/>
+    <col min="1" max="16384" width="4.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+    <row r="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="1" t="s">
+      <c r="V1" s="12"/>
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="3:16">
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="8"/>
+      <c r="E31" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="E32" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="9"/>
+      <c r="E33" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C4" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C5" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C6" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C8" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C9" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C10" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C18" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C19" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="20"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C20" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C22" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C24" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="C30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B31" s="16"/>
-      <c r="E31" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="E32" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="15"/>
-      <c r="E33" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E34" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E35" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E37" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="8" t="s">
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D40" s="8" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D41" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C42" s="8" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C43" s="11" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C45" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C46" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C47" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C48" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C49" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
-        <v>141</v>
+    <row r="69" s="3" customFormat="1" spans="1:1">
+      <c r="A69" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:1">
+      <c r="A70" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1"/>
+    <row r="72" s="3" customFormat="1" spans="1:1">
+      <c r="A72" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="1:1">
+      <c r="A73" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" spans="1:1">
+      <c r="A74" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:P23"/>
     <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E23:H23"/>
     <mergeCell ref="C22:D23"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="E22:H22"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BBD019-CF32-4361-976A-6FF8350F3D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="4.875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="22.5" spans="9:31">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="12"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:27">
+      <c r="A2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="3:3">
+      <c r="C4" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="3:3">
+      <c r="C6" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="3:3">
+      <c r="C7" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:3">
+      <c r="B8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="3:3">
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="3:3">
+      <c r="C11" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="3:3">
+      <c r="C12" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="3:3">
+      <c r="C13" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="3:3">
+      <c r="C14" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="3:3">
+      <c r="C15" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:2">
+      <c r="B16" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="2:2">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="3:5">
+      <c r="C18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="2:5">
+      <c r="B19" s="8"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:5">
+      <c r="B21" s="9"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="5:5">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="5:5">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="4:4">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="5:5">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="2:4">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="4:4">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="3:3">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="3:4">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:3">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="3:3">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="3:3">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="3:3">
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:3">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:1">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1"/>
+    <row r="60" s="3" customFormat="1" spans="1:1">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" spans="1:1">
+      <c r="A61" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="1" spans="1:1">
+      <c r="A62" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B30:Z97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="30" spans="26:26" x14ac:dyDescent="0.15">
-      <c r="Z30" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="18" t="s">
-        <v>149</v>
+    <row r="30" spans="26:26">
+      <c r="Z30" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>